--- a/studyplan_2025-2026.xlsx
+++ b/studyplan_2025-2026.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlho/Dropbox/____kho/___ntcc/nextgen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B707E7-973B-0544-9154-55C1FFD49BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C50C1-3E3E-314C-A77D-4D91D4E6FD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2700" windowWidth="26840" windowHeight="15940" xr2:uid="{162FE69C-A7CC-D446-BDB1-DEE95594C495}"/>
+    <workbookView xWindow="680" yWindow="2020" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{162FE69C-A7CC-D446-BDB1-DEE95594C495}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sep" sheetId="4" r:id="rId2"/>
+    <sheet name="july" sheetId="2" r:id="rId3"/>
+    <sheet name="aug" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>Month</t>
   </si>
@@ -193,13 +195,593 @@
   </si>
   <si>
     <t>Sharing Christ’s love and becoming a light in their communities.</t>
+  </si>
+  <si>
+    <t>🔹 Week A — </t>
+  </si>
+  <si>
+    <t>“Crucified: Old Self Declared Dead”</t>
+  </si>
+  <si>
+    <t>Identity comes from being united with Christ in death.</t>
+  </si>
+  <si>
+    <t>🔹 Week B — </t>
+  </si>
+  <si>
+    <t>“Christ Lives in Me”</t>
+  </si>
+  <si>
+    <t>Our true self is Christ living through us.</t>
+  </si>
+  <si>
+    <t>🔹 Week C — </t>
+  </si>
+  <si>
+    <t>“Living by Faith in the Son of God”</t>
+  </si>
+  <si>
+    <t>Faith is more than belief—it’s daily reliance on Christ.</t>
+  </si>
+  <si>
+    <t>🔹 Week D — </t>
+  </si>
+  <si>
+    <t>“Loved &amp; Given for Me”</t>
+  </si>
+  <si>
+    <t>Jesus’ love didn’t stop at mission—it’s personal and sacrificial.</t>
+  </si>
+  <si>
+    <t>Key Scripture:</t>
+  </si>
+  <si>
+    <t>Discussion Questions:</t>
+  </si>
+  <si>
+    <t>What does it mean that “Christ lives in me” rather than simply “I live like Christ”?</t>
+  </si>
+  <si>
+    <t>How does His presence empower your daily choices, friendships, and challenges?</t>
+  </si>
+  <si>
+    <t>Can you share a moment when you sensed Jesus actively guiding or comforting you?</t>
+  </si>
+  <si>
+    <t>Application Points:</t>
+  </si>
+  <si>
+    <t>How do you differentiate between “faith” and simply “trying harder”?</t>
+  </si>
+  <si>
+    <t>What areas in your life need a stronger application of faith? (e.g., relationships, school, struggles)</t>
+  </si>
+  <si>
+    <t>Why is “faith in the Son of God” special compared to other types of belief?</t>
+  </si>
+  <si>
+    <t>Have you ever experienced someone showing sacrificial love that reflected Christ’s?</t>
+  </si>
+  <si>
+    <t>🎯 Why It Matters</t>
+  </si>
+  <si>
+    <t>Together, these weeks build on a strong foundation:</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Christ in me</t>
+  </si>
+  <si>
+    <t>Anchor identity in His presence</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Living by faith</t>
+  </si>
+  <si>
+    <t>Build reliance on Him, not self</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Loved &amp; given per Gal. 2:20</t>
+  </si>
+  <si>
+    <t>Internalize personal love → reflect it outward</t>
+  </si>
+  <si>
+    <t>🔹 Week 2 — “Christ Lives in Me”</t>
+  </si>
+  <si>
+    <t>🔹 Week 3 — “Living by Faith in the Son of God”</t>
+  </si>
+  <si>
+    <t>🔹 Week 4 — “Loved &amp; Given for Me”</t>
+  </si>
+  <si>
+    <r>
+      <t>Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Trash your old identity labels (e.g., cut up index cards).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>: What labels do you still carry that don’t match who you are in Christ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Mirrors with written affirmations (“Christ lives in me”); encourage personal reflection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Faith journaling—how does living by faith shape decisions?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Gratitude prayers—thank Jesus for His personal gift of love and gift of Himself.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here are the Bible Study plans for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Weeks B–D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in your “Identity in Christ” series, built around </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Galatians 2:20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> with scripture, questions, and applications:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Galatians 2:20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – “Christ lives in me” reinforced</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Romans 8:10–11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – “Christ lives within you… the Spirit gives life”  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mirror Affirmation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Write “Christ lives in me” on a mirror. Each morning, look each statement in the eyes and declare it aloud.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Soul Check-ins:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pause 2–3 times during your day and ask, “Am I moving from my own strength—or His life in me?”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prayer Prompt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> “Jesus, help me recognize and rely on Your life within me today.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Galatians 2:20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – “I live by faith in the Son of God”  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Galatians 3:11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – “The just shall live by faith,” echoing Habakkuk 2:4  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hebrews 10:38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> reference via Habakkuk; consistent theme: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>living by faith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Hebrews 10:38)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Faith Journal Exercise:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Each day, write one area you need faith for and how you practically trust Christ in that area.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Accountability Pair:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> At the week’s start, share your faith goal and check in daily midweek.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prayer Starter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> “God, I choose to live by faith in Your Son – please guide me in trusting You now.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Galatians 2:20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – “who loved me and gave himself for me”  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>John 15:13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – “Greater love has no one than this… to lay down his life for his friends”  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ephesians 5:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – Christ “gave himself up for us as a fragrant offering and sacrifice”  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What difference does it make that Jesus gave Himself </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>personally for me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In what way can you </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sacrificial love this week to others?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gratitude Prayer Time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Invite youth to silently thank Jesus for His personal gift and then share one thing they’re grateful for.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Love in Action:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Challenge them to do one selfless act this week (help a neighbor, encourage a friend, volunteer).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reflection Prompt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> “How does being loved by Jesus license me to love others sacrificially?”</t>
+    </r>
+  </si>
+  <si>
+    <t>Serving Others with Love</t>
+  </si>
+  <si>
+    <t>John 13:34-35 "A new commandment I give to you, that you love one another: just as I have loved you, you also are to love one another. 35By this all people will know that you are my disciples, if you have love for one another."</t>
+  </si>
+  <si>
+    <t>Forgive One Another</t>
+  </si>
+  <si>
+    <t>Love One Another</t>
+  </si>
+  <si>
+    <t>Encourage One Another</t>
+  </si>
+  <si>
+    <t>Serve One Another</t>
+  </si>
+  <si>
+    <t>Colossians 3:12–14 </t>
+  </si>
+  <si>
+    <t>John 13:34–35</t>
+  </si>
+  <si>
+    <t>Bearing with one another in love and forgiveness.</t>
+  </si>
+  <si>
+    <t>Jesus’ command to love.</t>
+  </si>
+  <si>
+    <t>1 Thessalonians 5:11 </t>
+  </si>
+  <si>
+    <t>“Encourage one another and build each other up.”</t>
+  </si>
+  <si>
+    <t>Galatians 5:13</t>
+  </si>
+  <si>
+    <t>“Serve one another humbly in love.”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +809,41 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -242,7 +859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -265,11 +882,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,6 +914,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CD0E7C-9610-D84F-B808-C2D8CA927A4F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,13 +1463,481 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA06AED-5FB5-3346-B15E-5661D97FD071}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD21DE1-AC68-1B45-BFE4-D0CBD5340365}">
+  <dimension ref="D2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D3" s="12">
+        <v>45907</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D4" s="12">
+        <v>45914</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D5" s="12">
+        <v>45921</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D6" s="12">
+        <v>45928</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA06AED-5FB5-3346-B15E-5661D97FD071}">
+  <dimension ref="A1:C148"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="124.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F14735-68AC-E245-9CB4-22AD86A3E1D2}">
+  <dimension ref="A3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>45893</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>45900</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>